--- a/nmadb/501316.xlsx
+++ b/nmadb/501316.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="10035"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>year</t>
   </si>
@@ -24,9 +24,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>HR</t>
-  </si>
-  <si>
     <t>95% CI lower</t>
   </si>
   <si>
@@ -42,12 +39,6 @@
     <t>Flourouracil</t>
   </si>
   <si>
-    <t>tx 1</t>
-  </si>
-  <si>
-    <t>tx 2</t>
-  </si>
-  <si>
     <t>Observation</t>
   </si>
   <si>
@@ -97,13 +88,25 @@
   </si>
   <si>
     <t>n2</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>effect=HR</t>
+  </si>
+  <si>
+    <t>effect</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,7 +178,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -249,7 +252,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -284,7 +286,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -460,14 +461,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -481,51 +482,51 @@
     <col min="10" max="10" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>4</v>
-      </c>
       <c r="I1" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K1" s="5"/>
       <c r="L1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="2">
         <v>2001</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -552,10 +553,13 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="2">
         <v>2001</v>
       </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
       <c r="D3" s="2">
         <v>4</v>
       </c>
@@ -578,15 +582,15 @@
         <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="2">
         <v>2004</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
@@ -616,13 +620,16 @@
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="2">
         <v>2004</v>
       </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
       <c r="D5" s="2">
         <v>4</v>
       </c>
@@ -648,13 +655,16 @@
         <v>2</v>
       </c>
       <c r="M5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="2">
         <v>2004</v>
       </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
       <c r="D6" s="2">
         <v>5</v>
       </c>
@@ -680,13 +690,16 @@
         <v>3</v>
       </c>
       <c r="M6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="2">
         <v>2004</v>
       </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
       <c r="D7" s="2">
         <v>5</v>
       </c>
@@ -712,15 +725,15 @@
         <v>4</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="2">
         <v>2009</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
@@ -750,15 +763,15 @@
         <v>5</v>
       </c>
       <c r="M8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="2">
         <v>2009</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2">
         <v>4</v>
@@ -788,15 +801,15 @@
         <v>6</v>
       </c>
       <c r="M9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="2">
         <v>2007</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2">
         <v>5</v>
@@ -824,12 +837,12 @@
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="2">
         <v>2009</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2">
         <v>6</v>
@@ -856,12 +869,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="2">
         <v>2010</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C12" s="2">
         <v>7</v>
@@ -887,13 +900,16 @@
       <c r="J12" s="1">
         <v>551</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="2">
         <v>2007</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C13" s="2">
         <v>8</v>
@@ -920,12 +936,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="2">
         <v>2008</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C14" s="2">
         <v>9</v>
@@ -959,24 +975,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
